--- a/reference/lib.xlsx
+++ b/reference/lib.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PhuSang\vite-react-boilerplate\reference\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38515320-8830-40FD-B0A2-B51047737835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Lib UI" sheetId="1" r:id="rId1"/>
-    <sheet name="UI Framwork" sheetId="3" r:id="rId2"/>
-    <sheet name="Utils" sheetId="2" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="Lib UI"/>
+    <sheet r:id="rId2" sheetId="2" name="UI Framwork"/>
+    <sheet r:id="rId3" sheetId="3" name="Utils"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +24,54 @@
     <t>Github</t>
   </si>
   <si>
+    <t>Big Number</t>
+  </si>
+  <si>
+    <t>https://github.com/MikeMcl/bignumber.js/</t>
+  </si>
+  <si>
+    <t>Easy QR Code</t>
+  </si>
+  <si>
+    <t>https://github.com/ushelp/EasyQRCodeJS/blob/master/src/easy.qrcode.js</t>
+  </si>
+  <si>
+    <t>React Native Copilot</t>
+  </si>
+  <si>
+    <t>https://github.com/mohebifar/react-native-copilot</t>
+  </si>
+  <si>
+    <t>React Native App Intro Slider</t>
+  </si>
+  <si>
+    <t>https://github.com/Jacse/react-native-app-intro-slider</t>
+  </si>
+  <si>
+    <t>React Native App Tour</t>
+  </si>
+  <si>
+    <t>https://github.com/prscX/react-native-app-tour</t>
+  </si>
+  <si>
+    <t>Debouce Promise</t>
+  </si>
+  <si>
+    <t>https://github.com/bjoerge/debounce-promise</t>
+  </si>
+  <si>
+    <t>Antd Design</t>
+  </si>
+  <si>
+    <t>https://ant.design/</t>
+  </si>
+  <si>
+    <t>MUI</t>
+  </si>
+  <si>
+    <t>https://mui.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve"> React Use </t>
   </si>
   <si>
@@ -170,21 +207,21 @@
     <t>react-player</t>
   </si>
   <si>
+    <t>https://github.com/CookPete/react-player</t>
+  </si>
+  <si>
     <t>react-number-format</t>
   </si>
   <si>
+    <t>https://github.com/s-yadav/react-number-format</t>
+  </si>
+  <si>
     <t>React Query</t>
   </si>
   <si>
     <t>https://github.com/tannerlinsley/react-query</t>
   </si>
   <si>
-    <t>https://github.com/s-yadav/react-number-format</t>
-  </si>
-  <si>
-    <t>https://github.com/CookPete/react-player</t>
-  </si>
-  <si>
     <t>react-input-mask</t>
   </si>
   <si>
@@ -254,33 +291,21 @@
     <t>gsap</t>
   </si>
   <si>
+    <t>https://github.com/greensock/GSAP</t>
+  </si>
+  <si>
     <t>react-smooth</t>
   </si>
   <si>
-    <t>https://github.com/greensock/GSAP</t>
-  </si>
-  <si>
     <t>https://github.com/recharts/react-smooth</t>
   </si>
   <si>
-    <t>https://ant.design/</t>
-  </si>
-  <si>
-    <t>Antd Design</t>
-  </si>
-  <si>
-    <t>MUI</t>
-  </si>
-  <si>
-    <t>https://mui.com/</t>
+    <t>React Webcam</t>
   </si>
   <si>
     <t>https://github.com/mozmorris/react-webcam</t>
   </si>
   <si>
-    <t>React Webcam</t>
-  </si>
-  <si>
     <t>Froala Editor V3</t>
   </si>
   <si>
@@ -293,40 +318,23 @@
     <t>https://github.com/margox/braft-editor</t>
   </si>
   <si>
+    <t>CK Editor 5</t>
+  </si>
+  <si>
     <t>https://github.com/ckeditor/ckeditor5-react</t>
   </si>
   <si>
-    <t>CK Editor 5</t>
+    <t>React 360 View</t>
   </si>
   <si>
     <t>https://github.com/rajeevgade/react-360</t>
-  </si>
-  <si>
-    <t>React 360 View</t>
-  </si>
-  <si>
-    <t>https://github.com/MikeMcl/bignumber.js/</t>
-  </si>
-  <si>
-    <t>Big Number</t>
-  </si>
-  <si>
-    <t>https://github.com/ushelp/EasyQRCodeJS/blob/master/src/easy.qrcode.js</t>
-  </si>
-  <si>
-    <t>Easy QR Code</t>
-  </si>
-  <si>
-    <t>https://github.com/bjoerge/debounce-promise</t>
-  </si>
-  <si>
-    <t>Debouce Promise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,17 +346,16 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -360,12 +367,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFff0000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -374,29 +402,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -407,10 +438,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -437,82 +468,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,160 +555,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" customWidth="1"/>
-    <col min="2" max="2" width="85.44140625" customWidth="1"/>
+    <col min="1" max="1" style="4" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="85.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,416 +739,371 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>90</v>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{69539551-7545-4E6E-8512-536909271B06}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{10843A6C-4D39-4510-9AE4-E60D0D61DFE3}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{0440908D-CDD9-430A-BFA1-83EDFED15278}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{2FEDC613-AB85-4FDB-A041-A03350F91836}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{78B657CB-3130-4605-A13D-33FFFE8DDF96}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{A3C57DC0-7C61-40DF-ABD8-1281AD385A89}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{E400270C-3C1D-40A8-BBA2-996C20B000EB}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{06502CE9-5CB5-4600-BEEA-CA1D9C33B139}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{509FCBBC-B5E5-4AB1-91E4-2279B4484767}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{B0150E2A-299A-44D3-8D12-F1BFB3E47A66}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{E1453D31-6449-4520-91E2-B58E28DF0D2D}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{5F5C89FF-9252-4098-B4D2-99DCBA359A9B}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{C25A2797-A737-4405-94F0-80B55356229B}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{DBBAFADA-3227-4AFC-AD54-EB50CA9D7208}"/>
-    <hyperlink ref="B17" r:id="rId15" location="readme" xr:uid="{6BF05162-1F1F-4B2E-AD3A-82ADAE36A482}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{6C2E3116-D7B8-49A7-954E-306260459A10}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{D9E75BFA-EED9-4209-9369-DB778934D9A0}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{FD448CA0-32DC-4E9B-ADFB-7EDF05EFA71B}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{9A9DB8DA-4B8B-4DF1-A16A-5960CDF9CAF7}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{7F5F0D4F-040A-44BF-8AE9-DA388E82AEDD}"/>
-    <hyperlink ref="B15" r:id="rId21" xr:uid="{30A10B01-816E-43F4-BBB9-59F12DE3B578}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{E7F413B5-1799-4A8A-AF9A-737010C6F30E}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{1F442B85-DF1D-4518-9354-B30D839A3825}"/>
-    <hyperlink ref="B26" r:id="rId24" xr:uid="{EFB6EFD9-13EC-4629-88F3-EB6512CC1F4B}"/>
-    <hyperlink ref="B25" r:id="rId25" xr:uid="{DAEAC3EB-8D4A-48FA-AF0A-D75FD52AA9C8}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{166EBC22-0E5C-41E1-AA9F-7CF7C401FEED}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{6DF66C85-C700-470B-B25B-80F390C16760}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{0E74495C-F1E0-47F1-8E3B-D1DA7033B59E}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{D2545B95-1D65-4926-9442-CF4A0F7B775A}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{F0EDC048-E028-4255-993D-BE071397E59D}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{1C5A4222-1BF4-4620-BCC5-5481199260DF}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{DCDC5957-FE94-4B18-A55E-D7CB2D7D7858}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{E526828D-4C75-4B02-9262-A873854CFBDF}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{17DBEE52-FBA4-4EDB-8358-BD2E89032097}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{F413199D-6515-4153-A2F2-5C4FF382F5C3}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{C73CCEE3-92E5-4D8D-8D16-30E13F15F2EC}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{BD6E8E97-B002-4806-A39E-8DDC9AA144C6}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{31747AAD-2BDD-4055-8C18-C075EB9D1D82}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{9141627B-4419-4DD1-99E0-C73C49F0AC6E}"/>
-    <hyperlink ref="B42" r:id="rId40" xr:uid="{2A28558E-D8C2-4C2B-9E96-E6F436A48785}"/>
-    <hyperlink ref="B41" r:id="rId41" xr:uid="{FAE8DE0A-3224-4CEF-A976-53BDC0B629A7}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{64554749-5F7C-4E21-9A56-AA63E570927D}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{2ECF38FD-8F85-4066-B400-25C9DD5086B3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FCCE17-86B0-4E45-A52E-2610BDDE8DC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="79.21875" customWidth="1"/>
+    <col min="1" max="1" style="4" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="79.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,45 +1111,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>81</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{39F4D581-6E58-4A0E-921F-C06D912DAE4A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A058C-D346-47B0-B62A-5BF5F08BA297}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="79.21875" customWidth="1"/>
+    <col min="1" max="1" style="4" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="79.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,36 +1155,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>97</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{31F2FD8B-E57E-49B0-AE93-1CABE9B1EE33}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{19F12E96-AC8B-43FF-9608-AECDB9742AA7}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{C8244429-EA56-4923-903C-5CAFB5792CB0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reference/lib.xlsx
+++ b/reference/lib.xlsx
@@ -405,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -417,7 +417,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,8 +733,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="85.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="85.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.8">
@@ -1099,8 +1105,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="79.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="79.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1115,7 +1121,7 @@
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1143,8 +1149,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="79.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="79.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
@@ -1175,7 +1181,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1183,7 +1189,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1191,7 +1197,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
